--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,10 +82,10 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Vegfc</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H2">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I2">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J2">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.414841</v>
       </c>
       <c r="O2">
-        <v>0.05497238930810543</v>
+        <v>0.03059328965493693</v>
       </c>
       <c r="P2">
-        <v>0.05497238930810542</v>
+        <v>0.03059328965493693</v>
       </c>
       <c r="Q2">
-        <v>0.7676458010845554</v>
+        <v>0.6843133245931111</v>
       </c>
       <c r="R2">
-        <v>6.908812209760999</v>
+        <v>6.158819921338</v>
       </c>
       <c r="S2">
-        <v>0.02896207228333143</v>
+        <v>0.01504453551500677</v>
       </c>
       <c r="T2">
-        <v>0.02896207228333142</v>
+        <v>0.01504453551500677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H3">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I3">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J3">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.090313</v>
       </c>
       <c r="O3">
-        <v>0.2769964878394223</v>
+        <v>0.1541543653555945</v>
       </c>
       <c r="P3">
-        <v>0.2769964878394223</v>
+        <v>0.1541543653555945</v>
       </c>
       <c r="Q3">
-        <v>3.868036181097</v>
+        <v>3.448138054026</v>
       </c>
       <c r="R3">
-        <v>34.812325629873</v>
+        <v>31.033242486234</v>
       </c>
       <c r="S3">
-        <v>0.1459349394124191</v>
+        <v>0.07580684687863626</v>
       </c>
       <c r="T3">
-        <v>0.1459349394124191</v>
+        <v>0.07580684687863627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H4">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I4">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J4">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.680399333333333</v>
+        <v>3.682798</v>
       </c>
       <c r="N4">
-        <v>5.041198</v>
+        <v>11.048394</v>
       </c>
       <c r="O4">
-        <v>0.6680311228524723</v>
+        <v>0.8147861900435764</v>
       </c>
       <c r="P4">
-        <v>0.6680311228524722</v>
+        <v>0.8147861900435764</v>
       </c>
       <c r="Q4">
-        <v>9.328524608550888</v>
+        <v>18.22520731932133</v>
       </c>
       <c r="R4">
-        <v>83.95672147695799</v>
+        <v>164.026865873892</v>
       </c>
       <c r="S4">
-        <v>0.3519506048596591</v>
+        <v>0.4006787080273832</v>
       </c>
       <c r="T4">
-        <v>0.351950604859659</v>
+        <v>0.4006787080273833</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.979395333333334</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H5">
-        <v>11.938186</v>
+        <v>14.846218</v>
       </c>
       <c r="I5">
-        <v>0.3776605706236408</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J5">
-        <v>0.3776605706236408</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1382803333333333</v>
+        <v>0.002107</v>
       </c>
       <c r="N5">
-        <v>0.414841</v>
+        <v>0.006321</v>
       </c>
       <c r="O5">
-        <v>0.05497238930810543</v>
+        <v>0.0004661549458921764</v>
       </c>
       <c r="P5">
-        <v>0.05497238930810542</v>
+        <v>0.0004661549458921764</v>
       </c>
       <c r="Q5">
-        <v>0.5502721131584445</v>
+        <v>0.01042699377533333</v>
       </c>
       <c r="R5">
-        <v>4.952449018426</v>
+        <v>0.09384294397800001</v>
       </c>
       <c r="S5">
-        <v>0.02076090391464403</v>
+        <v>0.0002292360422194474</v>
       </c>
       <c r="T5">
-        <v>0.02076090391464402</v>
+        <v>0.0002292360422194474</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.979395333333334</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H6">
         <v>11.938186</v>
       </c>
       <c r="I6">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J6">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.696771</v>
+        <v>0.1382803333333333</v>
       </c>
       <c r="N6">
-        <v>2.090313</v>
+        <v>0.414841</v>
       </c>
       <c r="O6">
-        <v>0.2769964878394223</v>
+        <v>0.03059328965493693</v>
       </c>
       <c r="P6">
-        <v>0.2769964878394223</v>
+        <v>0.03059328965493693</v>
       </c>
       <c r="Q6">
-        <v>2.772727265802001</v>
+        <v>0.5502721131584445</v>
       </c>
       <c r="R6">
-        <v>24.95454539221801</v>
+        <v>4.952449018426</v>
       </c>
       <c r="S6">
-        <v>0.1046106516581806</v>
+        <v>0.01209765768371154</v>
       </c>
       <c r="T6">
-        <v>0.1046106516581806</v>
+        <v>0.01209765768371154</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.979395333333334</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H7">
         <v>11.938186</v>
       </c>
       <c r="I7">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J7">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.680399333333333</v>
+        <v>0.696771</v>
       </c>
       <c r="N7">
-        <v>5.041198</v>
+        <v>2.090313</v>
       </c>
       <c r="O7">
-        <v>0.6680311228524723</v>
+        <v>0.1541543653555945</v>
       </c>
       <c r="P7">
-        <v>0.6680311228524722</v>
+        <v>0.1541543653555945</v>
       </c>
       <c r="Q7">
-        <v>6.686973265203112</v>
+        <v>2.772727265802</v>
       </c>
       <c r="R7">
-        <v>60.182759386828</v>
+        <v>24.954545392218</v>
       </c>
       <c r="S7">
-        <v>0.2522890150508162</v>
+        <v>0.06095803241678649</v>
       </c>
       <c r="T7">
-        <v>0.2522890150508162</v>
+        <v>0.0609580324167865</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.044456</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H8">
-        <v>0.133368</v>
+        <v>11.938186</v>
       </c>
       <c r="I8">
-        <v>0.004219052625158775</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J8">
-        <v>0.004219052625158775</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1382803333333333</v>
+        <v>3.682798</v>
       </c>
       <c r="N8">
-        <v>0.414841</v>
+        <v>11.048394</v>
       </c>
       <c r="O8">
-        <v>0.05497238930810543</v>
+        <v>0.8147861900435764</v>
       </c>
       <c r="P8">
-        <v>0.05497238930810542</v>
+        <v>0.8147861900435764</v>
       </c>
       <c r="Q8">
-        <v>0.006147390498666666</v>
+        <v>14.65530917480933</v>
       </c>
       <c r="R8">
-        <v>0.055326514488</v>
+        <v>131.897782573284</v>
       </c>
       <c r="S8">
-        <v>0.0002319314034216124</v>
+        <v>0.3221949820937961</v>
       </c>
       <c r="T8">
-        <v>0.0002319314034216123</v>
+        <v>0.3221949820937962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.979395333333333</v>
+      </c>
+      <c r="H9">
+        <v>11.938186</v>
+      </c>
+      <c r="I9">
+        <v>0.395435006178203</v>
+      </c>
+      <c r="J9">
+        <v>0.395435006178203</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.044456</v>
-      </c>
-      <c r="H9">
-        <v>0.133368</v>
-      </c>
-      <c r="I9">
-        <v>0.004219052625158775</v>
-      </c>
-      <c r="J9">
-        <v>0.004219052625158775</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>0.696771</v>
+        <v>0.002107</v>
       </c>
       <c r="N9">
-        <v>2.090313</v>
+        <v>0.006321</v>
       </c>
       <c r="O9">
-        <v>0.2769964878394223</v>
+        <v>0.0004661549458921764</v>
       </c>
       <c r="P9">
-        <v>0.2769964878394223</v>
+        <v>0.0004661549458921764</v>
       </c>
       <c r="Q9">
-        <v>0.030975651576</v>
+        <v>0.008384585967333333</v>
       </c>
       <c r="R9">
-        <v>0.2787808641840001</v>
+        <v>0.075461273706</v>
       </c>
       <c r="S9">
-        <v>0.001168662759178675</v>
+        <v>0.0001843339839088727</v>
       </c>
       <c r="T9">
-        <v>0.001168662759178675</v>
+        <v>0.0001843339839088727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.113241666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.339725</v>
+      </c>
+      <c r="I10">
+        <v>0.1106235215306998</v>
+      </c>
+      <c r="J10">
+        <v>0.1106235215306998</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
-        <v>0.044456</v>
-      </c>
-      <c r="H10">
-        <v>0.133368</v>
-      </c>
-      <c r="I10">
-        <v>0.004219052625158775</v>
-      </c>
-      <c r="J10">
-        <v>0.004219052625158775</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>1.680399333333333</v>
+        <v>0.1382803333333333</v>
       </c>
       <c r="N10">
-        <v>5.041198</v>
+        <v>0.414841</v>
       </c>
       <c r="O10">
-        <v>0.6680311228524723</v>
+        <v>0.03059328965493693</v>
       </c>
       <c r="P10">
-        <v>0.6680311228524722</v>
+        <v>0.03059328965493693</v>
       </c>
       <c r="Q10">
-        <v>0.07470383276266666</v>
+        <v>0.1539394287472223</v>
       </c>
       <c r="R10">
-        <v>0.672334494864</v>
+        <v>1.385454858725</v>
       </c>
       <c r="S10">
-        <v>0.002818458462558487</v>
+        <v>0.003384337436837852</v>
       </c>
       <c r="T10">
-        <v>0.002818458462558487</v>
+        <v>0.003384337436837852</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9617376666666667</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H11">
-        <v>2.885213</v>
+        <v>3.339725</v>
       </c>
       <c r="I11">
-        <v>0.09127276019579077</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J11">
-        <v>0.09127276019579077</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1382803333333333</v>
+        <v>0.696771</v>
       </c>
       <c r="N11">
-        <v>0.414841</v>
+        <v>2.090313</v>
       </c>
       <c r="O11">
-        <v>0.05497238930810543</v>
+        <v>0.1541543653555945</v>
       </c>
       <c r="P11">
-        <v>0.05497238930810542</v>
+        <v>0.1541543653555945</v>
       </c>
       <c r="Q11">
-        <v>0.1329894051258889</v>
+        <v>0.7756745093250001</v>
       </c>
       <c r="R11">
-        <v>1.196904646133</v>
+        <v>6.981070583925002</v>
       </c>
       <c r="S11">
-        <v>0.005017481706708359</v>
+        <v>0.01705309875496598</v>
       </c>
       <c r="T11">
-        <v>0.005017481706708358</v>
+        <v>0.01705309875496598</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9617376666666667</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H12">
-        <v>2.885213</v>
+        <v>3.339725</v>
       </c>
       <c r="I12">
-        <v>0.09127276019579077</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J12">
-        <v>0.09127276019579077</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.696771</v>
+        <v>3.682798</v>
       </c>
       <c r="N12">
-        <v>2.090313</v>
+        <v>11.048394</v>
       </c>
       <c r="O12">
-        <v>0.2769964878394223</v>
+        <v>0.8147861900435764</v>
       </c>
       <c r="P12">
-        <v>0.2769964878394223</v>
+        <v>0.8147861900435764</v>
       </c>
       <c r="Q12">
-        <v>0.670110915741</v>
+        <v>4.099844183516668</v>
       </c>
       <c r="R12">
-        <v>6.030998241669001</v>
+        <v>36.89859765165001</v>
       </c>
       <c r="S12">
-        <v>0.02528223400964387</v>
+        <v>0.09013451763720247</v>
       </c>
       <c r="T12">
-        <v>0.02528223400964387</v>
+        <v>0.09013451763720247</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,46 +1219,294 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9617376666666667</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H13">
-        <v>2.885213</v>
+        <v>3.339725</v>
       </c>
       <c r="I13">
-        <v>0.09127276019579077</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J13">
-        <v>0.09127276019579077</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.680399333333333</v>
+        <v>0.002107</v>
       </c>
       <c r="N13">
-        <v>5.041198</v>
+        <v>0.006321</v>
       </c>
       <c r="O13">
-        <v>0.6680311228524723</v>
+        <v>0.0004661549458921764</v>
       </c>
       <c r="P13">
-        <v>0.6680311228524722</v>
+        <v>0.0004661549458921764</v>
       </c>
       <c r="Q13">
-        <v>1.616103333908222</v>
+        <v>0.002345600191666667</v>
       </c>
       <c r="R13">
-        <v>14.544930005174</v>
+        <v>0.02111040172500001</v>
       </c>
       <c r="S13">
-        <v>0.06097304447943855</v>
+        <v>5.156770169354539E-05</v>
       </c>
       <c r="T13">
-        <v>0.06097304447943854</v>
+        <v>5.156770169354539E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02195966666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.06587899999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="J14">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1382803333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.414841</v>
+      </c>
+      <c r="O14">
+        <v>0.03059328965493693</v>
+      </c>
+      <c r="P14">
+        <v>0.03059328965493693</v>
+      </c>
+      <c r="Q14">
+        <v>0.003036590026555556</v>
+      </c>
+      <c r="R14">
+        <v>0.027329310239</v>
+      </c>
+      <c r="S14">
+        <v>6.675901938076962E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.675901938076962E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02195966666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.06587899999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="J15">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.696771</v>
+      </c>
+      <c r="N15">
+        <v>2.090313</v>
+      </c>
+      <c r="O15">
+        <v>0.1541543653555945</v>
+      </c>
+      <c r="P15">
+        <v>0.1541543653555945</v>
+      </c>
+      <c r="Q15">
+        <v>0.015300858903</v>
+      </c>
+      <c r="R15">
+        <v>0.137707730127</v>
+      </c>
+      <c r="S15">
+        <v>0.000336387305205789</v>
+      </c>
+      <c r="T15">
+        <v>0.000336387305205789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02195966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.06587899999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="J16">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.682798</v>
+      </c>
+      <c r="N16">
+        <v>11.048394</v>
+      </c>
+      <c r="O16">
+        <v>0.8147861900435764</v>
+      </c>
+      <c r="P16">
+        <v>0.8147861900435764</v>
+      </c>
+      <c r="Q16">
+        <v>0.08087301648066667</v>
+      </c>
+      <c r="R16">
+        <v>0.7278571483259999</v>
+      </c>
+      <c r="S16">
+        <v>0.001777982285194518</v>
+      </c>
+      <c r="T16">
+        <v>0.001777982285194518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02195966666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.06587899999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="J17">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.002107</v>
+      </c>
+      <c r="N17">
+        <v>0.006321</v>
+      </c>
+      <c r="O17">
+        <v>0.0004661549458921764</v>
+      </c>
+      <c r="P17">
+        <v>0.0004661549458921764</v>
+      </c>
+      <c r="Q17">
+        <v>4.626901766666666E-05</v>
+      </c>
+      <c r="R17">
+        <v>0.000416421159</v>
+      </c>
+      <c r="S17">
+        <v>1.017218070310902E-06</v>
+      </c>
+      <c r="T17">
+        <v>1.017218070310902E-06</v>
       </c>
     </row>
   </sheetData>
